--- a/Apex Gaming Season 2 Leaderboard.xlsx
+++ b/Apex Gaming Season 2 Leaderboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mathenymotor-my.sharepoint.com/personal/tjrataiczak_mathenymotors_com/Documents/Documents/GitHub/Apex-Leaderboard-Updater/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_EA77F67CA37DA0C6925C988AD55F5B739FCEE8AC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BC75EE2-FE4C-470B-AEBD-4892671083ED}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="11_EA77F67CA37DA0C6925C988AD55F5B739FCEE8AC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB8DE393-B941-4E63-9E2A-1C752C4FDDC1}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="167">
   <si>
     <t>Rank</t>
   </si>
@@ -111,9 +111,6 @@
     <t>Jonah Litman</t>
   </si>
   <si>
-    <t>Maxx The Axe Turner</t>
-  </si>
-  <si>
     <t>Joshua Milliken</t>
   </si>
   <si>
@@ -526,6 +523,15 @@
   </si>
   <si>
     <t>Justin Sao</t>
+  </si>
+  <si>
+    <t>Pat Hlafcsak</t>
+  </si>
+  <si>
+    <t>Michael Moranelli</t>
+  </si>
+  <si>
+    <t>Joe Watson</t>
   </si>
 </sst>
 </file>
@@ -860,7 +866,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" s="1">
         <v>12</v>
@@ -882,7 +888,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C5" s="1">
         <v>9</v>
@@ -893,7 +899,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C6" s="1">
         <v>7</v>
@@ -904,7 +910,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1">
         <v>7</v>
@@ -915,7 +921,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="1">
         <v>7</v>
@@ -926,7 +932,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C9" s="1">
         <v>7</v>
@@ -937,7 +943,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1">
         <v>4</v>
@@ -948,7 +954,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C11" s="1">
         <v>4</v>
@@ -959,7 +965,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C12" s="1">
         <v>4</v>
@@ -970,7 +976,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C13" s="1">
         <v>4</v>
@@ -981,7 +987,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C14" s="1">
         <v>4</v>
@@ -992,7 +998,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C15" s="1">
         <v>4</v>
@@ -1003,7 +1009,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C16" s="1">
         <v>4</v>
@@ -1014,7 +1020,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C17" s="1">
         <v>4</v>
@@ -1025,7 +1031,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C18" s="1">
         <v>2</v>
@@ -1036,7 +1042,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C19" s="1">
         <v>2</v>
@@ -1047,7 +1053,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C20" s="1">
         <v>2</v>
@@ -1058,7 +1064,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="1">
         <v>2</v>
@@ -1082,7 +1088,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1102,7 +1108,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C2" s="1">
         <v>15</v>
@@ -1113,7 +1119,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C3" s="1">
         <v>12</v>
@@ -1124,7 +1130,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C4" s="1">
         <v>9</v>
@@ -1135,7 +1141,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C5" s="1">
         <v>9</v>
@@ -1146,7 +1152,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="1">
         <v>7</v>
@@ -1157,7 +1163,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C7" s="1">
         <v>7</v>
@@ -1168,7 +1174,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C8" s="1">
         <v>7</v>
@@ -1179,7 +1185,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C9" s="1">
         <v>7</v>
@@ -1190,7 +1196,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C10" s="1">
         <v>4</v>
@@ -1201,7 +1207,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C11" s="1">
         <v>4</v>
@@ -1212,7 +1218,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C12" s="1">
         <v>4</v>
@@ -1223,7 +1229,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C13" s="1">
         <v>4</v>
@@ -1234,7 +1240,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C14" s="1">
         <v>4</v>
@@ -1245,7 +1251,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C15" s="1">
         <v>4</v>
@@ -1256,7 +1262,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C16" s="1">
         <v>4</v>
@@ -1267,7 +1273,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C17" s="1">
         <v>4</v>
@@ -1278,7 +1284,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C18" s="1">
         <v>2</v>
@@ -1361,7 +1367,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1640,7 +1646,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="C25" s="1">
         <v>2</v>
@@ -1651,7 +1657,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="1">
         <v>2</v>
@@ -1662,7 +1668,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" s="1">
         <v>2</v>
@@ -1673,7 +1679,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" s="1">
         <v>2</v>
@@ -1684,7 +1690,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" s="1">
         <v>2</v>
@@ -1695,7 +1701,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" s="1">
         <v>2</v>
@@ -1706,7 +1712,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" s="1">
         <v>2</v>
@@ -1717,7 +1723,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32" s="1">
         <v>2</v>
@@ -1728,7 +1734,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" s="1">
         <v>2</v>
@@ -1739,7 +1745,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
@@ -1750,7 +1756,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
@@ -1775,8 +1781,8 @@
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -1795,7 +1801,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1">
         <v>15</v>
@@ -1806,7 +1812,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1">
         <v>12</v>
@@ -1817,7 +1823,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1">
         <v>9</v>
@@ -1839,7 +1845,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1">
         <v>7</v>
@@ -1850,7 +1856,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1">
         <v>7</v>
@@ -1872,7 +1878,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="1">
         <v>7</v>
@@ -1883,7 +1889,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1">
         <v>4</v>
@@ -1905,7 +1911,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="1">
         <v>4</v>
@@ -1916,7 +1922,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1">
         <v>4</v>
@@ -1935,7 +1941,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1961,7 +1967,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1">
         <v>15</v>
@@ -1972,7 +1978,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1">
         <v>12</v>
@@ -2016,7 +2022,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="1">
         <v>7</v>
@@ -2038,7 +2044,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1">
         <v>7</v>
@@ -2049,7 +2055,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="1">
         <v>4</v>
@@ -2060,7 +2066,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="1">
         <v>4</v>
@@ -2082,7 +2088,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="1">
         <v>4</v>
@@ -2093,7 +2099,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="1">
         <v>4</v>
@@ -2104,7 +2110,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="1">
         <v>4</v>
@@ -2115,7 +2121,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="1">
         <v>4</v>
@@ -2126,7 +2132,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="C17" s="1">
         <v>4</v>
@@ -2137,7 +2143,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" s="1">
         <v>2</v>
@@ -2148,7 +2154,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="1">
         <v>2</v>
@@ -2159,7 +2165,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20" s="1">
         <v>2</v>
@@ -2170,7 +2176,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="1">
         <v>2</v>
@@ -2181,7 +2187,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22" s="1">
         <v>2</v>
@@ -2192,7 +2198,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" s="1">
         <v>2</v>
@@ -2203,7 +2209,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24" s="1">
         <v>2</v>
@@ -2219,15 +2225,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2258,7 +2264,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="1">
         <v>12</v>
@@ -2280,7 +2286,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="1">
         <v>9</v>
@@ -2302,7 +2308,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" s="1">
         <v>7</v>
@@ -2313,7 +2319,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="1">
         <v>7</v>
@@ -2324,10 +2330,76 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="1">
         <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2368,7 +2440,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" s="1">
         <v>15</v>
@@ -2423,7 +2495,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1">
         <v>7</v>
@@ -2434,7 +2506,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="1">
         <v>7</v>
@@ -2445,7 +2517,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1">
         <v>7</v>
@@ -2456,7 +2528,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="1">
         <v>4</v>
@@ -2467,7 +2539,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C11" s="1">
         <v>4</v>
@@ -2478,7 +2550,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" s="1">
         <v>4</v>
@@ -2489,7 +2561,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="1">
         <v>4</v>
@@ -2500,7 +2572,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C14" s="1">
         <v>4</v>
@@ -2511,7 +2583,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C15" s="1">
         <v>4</v>
@@ -2522,7 +2594,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C16" s="1">
         <v>4</v>
@@ -2533,7 +2605,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C17" s="1">
         <v>4</v>
@@ -2544,7 +2616,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C18" s="1">
         <v>2</v>
@@ -2555,7 +2627,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C19" s="1">
         <v>2</v>
@@ -2566,7 +2638,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C20" s="1">
         <v>2</v>
@@ -2577,7 +2649,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C21" s="1">
         <v>2</v>
@@ -2599,7 +2671,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C23" s="1">
         <v>2</v>
@@ -2621,7 +2693,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C25" s="1">
         <v>2</v>
@@ -2632,7 +2704,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C26" s="1">
         <v>2</v>
@@ -2643,7 +2715,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C27" s="1">
         <v>2</v>
@@ -2654,7 +2726,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C28" s="1">
         <v>2</v>
@@ -2665,7 +2737,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C29" s="1">
         <v>2</v>
@@ -2676,7 +2748,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C30" s="1">
         <v>2</v>
@@ -2687,7 +2759,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C31" s="1">
         <v>2</v>
@@ -2698,7 +2770,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C32" s="1">
         <v>2</v>
@@ -2709,7 +2781,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C33" s="1">
         <v>2</v>
@@ -2720,7 +2792,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
@@ -2731,7 +2803,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
@@ -2742,7 +2814,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
@@ -2753,7 +2825,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
@@ -2764,7 +2836,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
@@ -2775,7 +2847,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
@@ -2797,7 +2869,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
@@ -2808,7 +2880,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
@@ -2819,7 +2891,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
@@ -2844,7 +2916,7 @@
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2864,7 +2936,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" s="1">
         <v>15</v>
@@ -2875,7 +2947,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" s="1">
         <v>12</v>
@@ -2886,7 +2958,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="1">
         <v>9</v>
@@ -2897,7 +2969,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" s="1">
         <v>9</v>
@@ -2908,7 +2980,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" s="1">
         <v>7</v>
@@ -2919,7 +2991,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1">
         <v>7</v>
@@ -2941,7 +3013,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C9" s="1">
         <v>7</v>
@@ -2974,7 +3046,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C12" s="1">
         <v>4</v>
@@ -2985,7 +3057,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1">
         <v>4</v>
@@ -2996,7 +3068,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="1">
         <v>4</v>
@@ -3018,7 +3090,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C16" s="1">
         <v>4</v>
@@ -3029,7 +3101,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C17" s="1">
         <v>4</v>
@@ -3040,7 +3112,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="1">
         <v>2</v>
@@ -3062,7 +3134,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C20" s="1">
         <v>2</v>
@@ -3084,7 +3156,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C22" s="1">
         <v>2</v>
@@ -3095,7 +3167,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C23" s="1">
         <v>2</v>
@@ -3106,7 +3178,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" s="1">
         <v>2</v>
@@ -3117,7 +3189,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C25" s="1">
         <v>2</v>
@@ -3161,7 +3233,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C29" s="1">
         <v>2</v>
@@ -3172,7 +3244,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C30" s="1">
         <v>2</v>
@@ -3183,7 +3255,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C31" s="1">
         <v>2</v>
@@ -3194,7 +3266,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C32" s="1">
         <v>2</v>
@@ -3205,7 +3277,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C33" s="1">
         <v>2</v>
@@ -3216,7 +3288,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
@@ -3227,7 +3299,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
@@ -3238,7 +3310,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
@@ -3249,7 +3321,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
@@ -3260,7 +3332,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
@@ -3271,7 +3343,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
@@ -3293,7 +3365,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
@@ -3304,7 +3376,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
@@ -3315,7 +3387,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
@@ -3326,7 +3398,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C44" s="1">
         <v>1</v>
@@ -3337,7 +3409,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
@@ -3359,7 +3431,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C47" s="1">
         <v>1</v>
@@ -3370,7 +3442,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C48" s="1">
         <v>1</v>
@@ -3392,7 +3464,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C50" s="1">
         <v>1</v>
@@ -3403,7 +3475,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C51" s="1">
         <v>1</v>
@@ -3414,7 +3486,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C52" s="1">
         <v>1</v>
@@ -3436,7 +3508,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C54" s="1">
         <v>1</v>
@@ -3447,7 +3519,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C55" s="1">
         <v>1</v>
@@ -3458,7 +3530,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C56" s="1">
         <v>1</v>
@@ -3469,7 +3541,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C57" s="1">
         <v>1</v>
@@ -3480,7 +3552,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C58" s="1">
         <v>1</v>
@@ -3491,7 +3563,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C59" s="1">
         <v>1</v>
@@ -3502,7 +3574,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C60" s="1">
         <v>1</v>
@@ -3524,7 +3596,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C62" s="1">
         <v>1</v>
@@ -3535,7 +3607,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C63" s="1">
         <v>1</v>
@@ -3557,7 +3629,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C65" s="1">
         <v>1</v>
@@ -3568,7 +3640,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C66" s="1">
         <v>1</v>
@@ -3579,7 +3651,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C67" s="1">
         <v>1</v>
@@ -3590,7 +3662,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C68" s="1">
         <v>1</v>
@@ -3601,7 +3673,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C69" s="1">
         <v>1</v>
@@ -3612,7 +3684,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C70" s="1">
         <v>1</v>
@@ -3623,7 +3695,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C71" s="1">
         <v>1</v>
@@ -3634,7 +3706,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C72" s="1">
         <v>1</v>
@@ -3645,7 +3717,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C73" s="1">
         <v>1</v>
@@ -3656,7 +3728,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C74" s="1">
         <v>1</v>
@@ -3667,7 +3739,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C75" s="1">
         <v>1</v>
@@ -3678,7 +3750,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C76" s="1">
         <v>1</v>
@@ -3689,7 +3761,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C77" s="1">
         <v>1</v>
@@ -3711,7 +3783,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C79" s="1">
         <v>1</v>
